--- a/Document/materialDataIntegrasi.xlsx
+++ b/Document/materialDataIntegrasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Katalon Studio\Bio-Farma\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683A209-C344-4943-BA10-6CE96EEDE0DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F99440B-A1E3-4B56-9797-CF66108E9C0D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{633AA565-9EB6-4FE1-BEE2-BDE9ED0AE1C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{633AA565-9EB6-4FE1-BEE2-BDE9ED0AE1C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="Referensi" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Material!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Material!$A$1:$G$1</definedName>
     <definedName name="Entitas">Referensi!$I$2:$I$16</definedName>
     <definedName name="Entity">Referensi!$I$2:$J$16</definedName>
     <definedName name="Kelompok1">Referensi!$A$2:$A$3</definedName>
-    <definedName name="Kelompok2">Referensi!$B$2:$B$25</definedName>
-    <definedName name="Kelompok3">Referensi!$C$2:$C$47</definedName>
+    <definedName name="Kelompok2">Referensi!$B$2:$B$23</definedName>
+    <definedName name="Kelompok3">Referensi!$C$2:$C$36</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="96">
   <si>
     <t>No</t>
   </si>
@@ -219,38 +219,6 @@
   </si>
   <si>
     <r>
-      <t>Kategori 1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kategori 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Kategori 3</t>
     </r>
     <r>
@@ -441,119 +409,32 @@
     <t>Kategori 3</t>
   </si>
   <si>
-    <t>Hewan</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
-  <si>
-    <t>Strain Bacterial</t>
-  </si>
-  <si>
-    <t>Jasa Konsultan Hukum</t>
-  </si>
-  <si>
-    <t>Investasi</t>
-  </si>
-  <si>
-    <t>Jasa Uji Lainnya</t>
-  </si>
-  <si>
-    <t>Jasa Uji Klinis</t>
-  </si>
-  <si>
-    <t>Consultant (Konstruksi, Sistem (IT))</t>
-  </si>
-  <si>
-    <t>Kuda, Keperluan Kuda</t>
-  </si>
-  <si>
-    <t>Beban Keamanan, Company Profile, Kalender, Agenda &amp; Peliputan, Alat Kebersihan &amp; Jasa Cuti</t>
-  </si>
-  <si>
-    <t>Pakaian, Fasilitas Makan, Kesehatan Karyawan</t>
-  </si>
-  <si>
-    <t>Marmot, Kelinci, Kera, Tikus, Hewan lain, Makanan, Obat Hewan</t>
-  </si>
-  <si>
-    <t>Biaya Promosi, Material Promosi, Events Marketing, Periklanan, Royalti, Sponsorship, Keagenan Ekspor, Monitoring Produk</t>
-  </si>
-  <si>
-    <t>Asuransi Lainnya</t>
-  </si>
-  <si>
-    <t>C001</t>
-  </si>
-  <si>
-    <t>C002</t>
-  </si>
-  <si>
-    <t>Vaksin Pfizer</t>
-  </si>
-  <si>
-    <t>Vaksin Moderna</t>
-  </si>
-  <si>
-    <t>Vaksin Pfizer Tipe B</t>
-  </si>
-  <si>
-    <t>Alkohol 80%</t>
-  </si>
-  <si>
-    <t>Dos</t>
-  </si>
-  <si>
-    <t>Kotak</t>
+    <t>Automated001</t>
+  </si>
+  <si>
+    <t>Automated002</t>
+  </si>
+  <si>
+    <t>Automated Test Material 1</t>
+  </si>
+  <si>
+    <t>Automated Test Material 2</t>
+  </si>
+  <si>
+    <t>Otomatisasi</t>
   </si>
   <si>
     <t>Local</t>
   </si>
   <si>
     <t>Indonesia</t>
-  </si>
-  <si>
-    <t>C003</t>
-  </si>
-  <si>
-    <t>C004</t>
-  </si>
-  <si>
-    <t>C005</t>
-  </si>
-  <si>
-    <t>C006</t>
-  </si>
-  <si>
-    <t>Amoksisilin</t>
-  </si>
-  <si>
-    <t>Parasetamol</t>
-  </si>
-  <si>
-    <t>Glycerin</t>
-  </si>
-  <si>
-    <t>Ethanol</t>
-  </si>
-  <si>
-    <t>Milligram (mg)</t>
-  </si>
-  <si>
-    <t>Liter (L)</t>
-  </si>
-  <si>
-    <t>Gram</t>
-  </si>
-  <si>
-    <t>Liter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,13 +460,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,18 +555,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,11 +869,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8902D1-8D43-495E-B662-ED492B321334}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,14 +882,12 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="19" style="6" customWidth="1"/>
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,189 +901,64 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="F6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G2000" xr:uid="{C343EB3C-57E6-4809-854E-F33D574D1BAD}">
-      <formula1>Kelompok1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H2000" xr:uid="{423CCF0C-7922-4B67-8AFF-1A5360F71787}">
-      <formula1>Kelompok2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I2000" xr:uid="{6C83B510-1943-4ED4-8DA5-47EC93D235B8}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G2000" xr:uid="{6C83B510-1943-4ED4-8DA5-47EC93D235B8}">
       <formula1>Kelompok3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{A80BCAE0-8BEB-486F-A6F9-0D4F8AD76E01}">
@@ -1236,10 +971,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A14E6CD-8042-4DB8-A274-C61E351C32ED}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,116 +991,74 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="5">
-        <v>50</v>
+        <v>89</v>
+      </c>
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="5">
+        <v>90</v>
+      </c>
+      <c r="C3" s="4">
         <v>200</v>
       </c>
+      <c r="D3" s="5" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1000</v>
-      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="5">
-        <v>200</v>
-      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10</v>
-      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D855DBC-8995-4AB9-943A-07796AFF3909}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.7109375" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1376,10 +1069,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1387,13 +1080,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1401,69 +1094,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1473,49 +1110,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13DDC7C-4432-46E3-A0D0-DA184D47AA14}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>90</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1534,14 +1171,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1560,14 +1197,14 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1583,14 +1220,14 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1606,14 +1243,14 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1629,14 +1266,14 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1652,14 +1289,14 @@
       <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1675,14 +1312,14 @@
       <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1698,14 +1335,14 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1721,14 +1358,14 @@
       <c r="F10" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1744,14 +1381,14 @@
       <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1767,14 +1404,14 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" t="s">
         <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1790,14 +1427,14 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" t="s">
         <v>39</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1813,14 +1450,14 @@
       <c r="F14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" t="s">
         <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1836,14 +1473,14 @@
       <c r="F15" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" t="s">
         <v>41</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1859,14 +1496,14 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" t="s">
         <v>42</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1519,7 @@
       <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1899,7 +1536,7 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1916,7 +1553,7 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1933,7 +1570,7 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1950,7 +1587,7 @@
       <c r="F21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1967,7 +1604,7 @@
       <c r="F22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1984,14 +1621,11 @@
       <c r="F23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
       <c r="C24" t="s">
         <v>16</v>
       </c>
@@ -2001,14 +1635,11 @@
       <c r="F24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="11" t="s">
-        <v>93</v>
+      <c r="G24" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
       <c r="C25" t="s">
         <v>17</v>
       </c>
@@ -2018,7 +1649,7 @@
       <c r="F25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2032,7 +1663,7 @@
       <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2046,7 +1677,7 @@
       <c r="F27" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2060,7 +1691,7 @@
       <c r="F28" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2074,7 +1705,7 @@
       <c r="F29" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2088,7 +1719,7 @@
       <c r="F30" t="s">
         <v>21</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2102,7 +1733,7 @@
       <c r="F31" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2116,7 +1747,7 @@
       <c r="F32" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2130,7 +1761,7 @@
       <c r="F33" t="s">
         <v>24</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2144,7 +1775,7 @@
       <c r="F34" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2158,7 +1789,7 @@
       <c r="F35" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2172,162 +1803,8 @@
       <c r="F36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G37" s="11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E39" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C42" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C46" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C47" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>
